--- a/DOC/bug ngày 13-10.xlsx
+++ b/DOC/bug ngày 13-10.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="bug 1" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="bug3" sheetId="3" r:id="rId3"/>
     <sheet name="bug4" sheetId="4" r:id="rId4"/>
     <sheet name="bug5" sheetId="5" r:id="rId5"/>
+    <sheet name="bug6" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Step1</t>
   </si>
@@ -39,6 +40,9 @@
   </si>
   <si>
     <t>Khi login voi user quan ly chi nhanh (3)thì duoc input discount , bug : khi input discount 10% thì [thành tiền ] ko thay doi theo</t>
+  </si>
+  <si>
+    <t>Show thong bao nhu the này thì user se khong hieu j het</t>
   </si>
 </sst>
 </file>
@@ -81,11 +85,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -93,10 +94,16 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1223,6 +1230,49 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="bug666666.JPG"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="571500"/>
+          <a:ext cx="12515850" cy="5724525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1540,48 +1590,48 @@
       <c r="B15" t="s">
         <v>0</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="1"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
     </row>
     <row r="47" spans="2:19">
       <c r="B47" t="s">
         <v>2</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C47" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3"/>
-      <c r="I47" s="3"/>
-      <c r="J47" s="3"/>
-      <c r="K47" s="3"/>
-      <c r="L47" s="3"/>
-      <c r="M47" s="3"/>
-      <c r="N47" s="3"/>
-      <c r="O47" s="3"/>
-      <c r="P47" s="3"/>
-      <c r="Q47" s="3"/>
-      <c r="R47" s="3"/>
-      <c r="S47" s="3"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4"/>
+      <c r="K47" s="4"/>
+      <c r="L47" s="4"/>
+      <c r="M47" s="4"/>
+      <c r="N47" s="4"/>
+      <c r="O47" s="4"/>
+      <c r="P47" s="4"/>
+      <c r="Q47" s="4"/>
+      <c r="R47" s="4"/>
+      <c r="S47" s="4"/>
     </row>
     <row r="48" spans="2:19">
       <c r="C48" s="5" t="s">
@@ -1595,17 +1645,17 @@
       <c r="I48" s="5"/>
       <c r="J48" s="5"/>
       <c r="K48" s="5"/>
-      <c r="L48" s="4"/>
-      <c r="M48" s="4"/>
-      <c r="N48" s="4"/>
-      <c r="O48" s="4"/>
-      <c r="P48" s="4"/>
-      <c r="Q48" s="4"/>
-      <c r="R48" s="4"/>
-      <c r="S48" s="4"/>
+      <c r="L48" s="2"/>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
+      <c r="P48" s="2"/>
+      <c r="Q48" s="2"/>
+      <c r="R48" s="2"/>
+      <c r="S48" s="2"/>
     </row>
     <row r="52" spans="8:8">
-      <c r="H52" s="2"/>
+      <c r="H52" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1630,82 +1680,82 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="2" spans="3:19">
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
     </row>
     <row r="3" spans="3:19">
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
     </row>
     <row r="4" spans="3:19">
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
     </row>
     <row r="5" spans="3:19">
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1735,7 +1785,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Y21" sqref="Y21"/>
     </sheetView>
   </sheetViews>
@@ -1750,4 +1800,40 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="C2:O2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2" spans="3:15">
+      <c r="C2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C2:O2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/DOC/bug ngày 13-10.xlsx
+++ b/DOC/bug ngày 13-10.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
   <si>
     <t>Step1</t>
   </si>
@@ -44,12 +44,15 @@
   <si>
     <t>Show thong bao nhu the này thì user se khong hieu j het</t>
   </si>
+  <si>
+    <t>DONE</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -59,6 +62,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -85,7 +96,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -105,12 +116,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1002,16 +1027,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1028,7 +1053,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1219200" y="1524000"/>
+          <a:off x="628650" y="400050"/>
           <a:ext cx="12954000" cy="6562725"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1321,7 +1346,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1353,9 +1378,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1387,6 +1413,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1562,31 +1589,64 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView topLeftCell="C13" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="7"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+    </row>
+    <row r="40" spans="5:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+    </row>
+    <row r="41" spans="5:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B15:S52"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S52"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="M49" sqref="M49"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="15" spans="2:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="7"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>0</v>
       </c>
@@ -1609,7 +1669,7 @@
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
     </row>
-    <row r="47" spans="2:19">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>2</v>
       </c>
@@ -1633,7 +1693,7 @@
       <c r="R47" s="4"/>
       <c r="S47" s="4"/>
     </row>
-    <row r="48" spans="2:19">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C48" s="5" t="s">
         <v>4</v>
       </c>
@@ -1654,14 +1714,15 @@
       <c r="R48" s="2"/>
       <c r="S48" s="2"/>
     </row>
-    <row r="52" spans="8:8">
+    <row r="52" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H52" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="C15:R15"/>
     <mergeCell ref="C47:S47"/>
     <mergeCell ref="C48:K48"/>
+    <mergeCell ref="A1:B2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -1670,16 +1731,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C2:S5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S5"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:S5"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="3:19">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="7"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
       <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
@@ -1700,7 +1769,7 @@
       <c r="R2" s="4"/>
       <c r="S2" s="4"/>
     </row>
-    <row r="3" spans="3:19">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
@@ -1719,7 +1788,7 @@
       <c r="R3" s="4"/>
       <c r="S3" s="4"/>
     </row>
-    <row r="4" spans="3:19">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -1738,7 +1807,7 @@
       <c r="R4" s="4"/>
       <c r="S4" s="4"/>
     </row>
-    <row r="5" spans="3:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -1758,8 +1827,9 @@
       <c r="S5" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="C2:S5"/>
+    <mergeCell ref="A1:B2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1767,52 +1837,87 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="7"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="D3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Y21" sqref="Y21"/>
+      <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="4:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="7"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C2:O2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="3:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="7"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
       <c r="C2" s="6" t="s">
         <v>7</v>
       </c>
@@ -1830,8 +1935,9 @@
       <c r="O2" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="C2:O2"/>
+    <mergeCell ref="A1:B2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
